--- a/Week.2.Storytelling.xlsx
+++ b/Week.2.Storytelling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurg/Desktop/Minor HAN/Storytelling with Data/My Fresh Connection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\GitHub\Storytelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B1BD89-9213-497E-92F4-DBDB2FC6DDAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D198AE2-C5D5-497A-B4E8-562514E73DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15600" firstSheet="2" activeTab="8" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack - Delivery Window" sheetId="1" r:id="rId1"/>
@@ -24,26 +24,17 @@
     <sheet name="Vitamin - Delivery Window" sheetId="9" r:id="rId9"/>
     <sheet name="Vitamin - Delivery Reliability" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="26">
   <si>
     <t>Supplier</t>
   </si>
@@ -118,6 +109,9 @@
   </si>
   <si>
     <t>Yoboma</t>
+  </si>
+  <si>
+    <t>1,0191</t>
   </si>
 </sst>
 </file>
@@ -128,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +220,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -244,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,14 +541,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -575,7 +570,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -586,7 +581,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -597,7 +592,7 @@
         <v>1.0114000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -608,7 +603,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -619,7 +614,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -630,7 +625,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -641,7 +636,7 @@
         <v>1.0134000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -665,9 +660,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -689,7 +684,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -700,7 +695,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -711,7 +706,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -722,7 +717,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -733,7 +728,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -744,7 +739,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -755,7 +750,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -766,7 +761,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -777,7 +772,7 @@
         <v>1.026</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -788,7 +783,7 @@
         <v>1.0289999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -799,7 +794,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -810,7 +805,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -821,7 +816,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -832,7 +827,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -843,7 +838,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -854,7 +849,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -865,7 +860,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -876,7 +871,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -887,7 +882,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -911,14 +906,14 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -940,7 +935,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -951,7 +946,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -962,7 +957,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -973,7 +968,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -984,7 +979,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -995,7 +990,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1034,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1045,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1056,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1067,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1078,7 @@
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1089,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1122,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1133,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1162,9 +1157,9 @@
       <selection activeCell="A6" sqref="A6:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1192,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1203,7 @@
         <v>0.99160000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1214,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>1.0185999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1276,9 +1271,9 @@
       <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1295,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1311,7 +1306,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1339,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1350,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1399,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1416,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1432,7 +1427,7 @@
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1449,7 @@
         <v>1.014</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1465,7 +1460,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1482,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1522,14 +1517,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1557,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1568,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1590,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1617,7 +1612,7 @@
         <v>1.0633999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1641,14 +1636,14 @@
       <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1709,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1725,7 +1720,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +1731,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1769,7 +1764,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1802,7 +1797,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1813,7 +1808,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +1819,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1868,7 +1863,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1888,13 +1883,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E05615-3DD6-4D6F-A069-E8050CEB4A77}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>1.0564</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1960,7 +1958,7 @@
         <v>1.0250999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>1.0230999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1982,19 +1980,20 @@
         <v>1.0215000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15">
-        <v>1.9099999999999999E-2</v>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2006,9 +2005,9 @@
       <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>1.0071000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>1.0121</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>1.0161</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>1.0190999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>1.0210999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>1.0221</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>1.0230999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>1.0250999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>1.0281</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>1.0321</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>1.052</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2248,16 +2247,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03105B62-54E1-48FD-9002-A50E9EB9E265}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>1.0222</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>1.0209999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>0.98319999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>

--- a/Week.2.Storytelling.xlsx
+++ b/Week.2.Storytelling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\GitHub\Storytelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D198AE2-C5D5-497A-B4E8-562514E73DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8049D915-A477-4892-8597-8D3C35EEC23E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack - Delivery Window" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C125B0-0A61-4642-B389-75D3AC3C7D55}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="4">
-        <v>0.98399999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E05615-3DD6-4D6F-A069-E8050CEB4A77}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2248,7 +2248,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Week.2.Storytelling.xlsx
+++ b/Week.2.Storytelling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\GitHub\Storytelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8049D915-A477-4892-8597-8D3C35EEC23E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032012BF-ED2C-48D7-BCD8-C134625784FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack - Delivery Window" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="26">
   <si>
     <t>Supplier</t>
   </si>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C125B0-0A61-4642-B389-75D3AC3C7D55}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2245,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03105B62-54E1-48FD-9002-A50E9EB9E265}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2257,14 +2257,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="15">
-        <v>1.024</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2272,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1.0229999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.024</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2283,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1.0222</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,21 +2294,21 @@
         <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="15">
-        <v>1.0209999999999999</v>
+        <v>1.0222</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="15">
-        <v>0.98499999999999999</v>
+        <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2316,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.98399999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2327,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
-        <v>0.98319999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,9 +2338,20 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.98319999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>0.98199999999999998</v>
       </c>
     </row>

--- a/Week.2.Storytelling.xlsx
+++ b/Week.2.Storytelling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\GitHub\Storytelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032012BF-ED2C-48D7-BCD8-C134625784FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A50AF-77D5-42D8-9DC4-142B4D2368C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{79FC98D7-015D-9A4D-821D-1F9B76DA9602}"/>
   </bookViews>
@@ -2248,7 +2248,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
